--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367548</v>
+        <v>450275.6437737592</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13475693.92771134</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8545939.730316184</v>
+        <v>8636206.831769023</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8674425.439317668</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>123.0172992876057</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>149.793316143436</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>129.3420634549346</v>
       </c>
     </row>
     <row r="4">
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760945</v>
+        <v>65.31103090874883</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>32.54455978946007</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.396723986041206</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>29.00874781031898</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X9" t="n">
-        <v>179.9896253540986</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.77203581859771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>216.1029489550137</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.8713578254454</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1484967153919</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>11.26664236074061</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>53.54735467376804</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>18.04735278065116</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>121.0389903687749</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>323.4722650703479</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.537847230489</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>155.5598945400499</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>349.4526337405157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
         <v>225.7871683969286</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>168.1446553719188</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.95866062610929</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>126.5388824951698</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>241.1454666540337</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>99.24581285537863</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>127.675255927006</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>126.3713919761757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.08103255255</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>98.02480001577894</v>
+        <v>45.72267183823772</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>334.9128068027535</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>41.86741718539963</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>44.7097572145997</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>20.93061764495414</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>61.26635328439252</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>85.95014028179156</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.944023270396465</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>184.1641512798903</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>326.5167014967993</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>119.0033277132828</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>119.1488185988158</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>152.3650712933278</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>129.4519115423907</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>32.23168924578577</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>28.03004253565356</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>391.0548532085543</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>173.2057702920258</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.6065387483027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>131.05739124507</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.25068158191804</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>20.95866062610961</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323098</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158252</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158252</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330558</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330558</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644752</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985578</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020261</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652791</v>
+        <v>463.1245860845257</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652791</v>
+        <v>314.7951708434059</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652791</v>
+        <v>166.465755602286</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487945</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323098</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323098</v>
+        <v>18.13634036116618</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>550.1875401335673</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652791</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>598.7959687224145</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U3" t="n">
-        <v>598.7959687224145</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V3" t="n">
-        <v>598.7959687224145</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3761837059299</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9563986894452</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170709</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330558</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330558</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.0020469733056</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079192</v>
+        <v>163.9284927306048</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644761</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>456.3902241803908</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>584.4056715233288</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020267</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="V5" t="n">
-        <v>560.6825636487949</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="W5" t="n">
-        <v>371.2627786323101</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="X5" t="n">
-        <v>181.8429936158253</v>
+        <v>584.7146254527692</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.0020469733056</v>
+        <v>518.7438871611037</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338.3894859156838</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>163.9364566345569</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>313.079244429523</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>456.3384873466072</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>584.0017498697405</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>518.7438871611037</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652798</v>
+        <v>518.7438871611037</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652798</v>
+        <v>350.2767894860245</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487949</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="W6" t="n">
-        <v>527.8092709321686</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X6" t="n">
-        <v>338.3894859156838</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>338.3894859156838</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230173</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170711</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396326</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0020469733056</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="U7" t="n">
-        <v>15.0020469733056</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400.3029543659128</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="C8" t="n">
-        <v>400.3029543659128</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="D8" t="n">
-        <v>400.3029543659128</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E8" t="n">
-        <v>400.3029543659128</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F8" t="n">
-        <v>210.8831693494281</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G8" t="n">
-        <v>21.46338433294335</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>21.46338433294335</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="T8" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="U8" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="V8" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="W8" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="X8" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="Y8" t="n">
-        <v>400.3029543659128</v>
+        <v>583.2614020227593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.4550762544326</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508564</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487947</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="W9" t="n">
-        <v>371.26277863231</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="X9" t="n">
-        <v>189.4550762544326</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="Y9" t="n">
-        <v>189.4550762544326</v>
+        <v>181.8429936158251</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754.744438482646</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1385.781921542234</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1385.781921542234</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>999.9936689439901</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>589.0077641543826</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>173.935313999379</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792694</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.48361052258</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.48361052258</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>2141.344278546768</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.6144980740474</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C13" t="n">
-        <v>189.6144980740474</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025388</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V13" t="n">
-        <v>417.6040489720648</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W13" t="n">
-        <v>417.6040489720648</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X13" t="n">
-        <v>189.6144980740474</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.6144980740474</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.429619686766</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>1771.429619686766</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1413.163921080015</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1027.375668481771</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923657</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.568951662578</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.429619686766</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,13 +5375,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
         <v>2435.471302619336</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.6003534763935</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C16" t="n">
-        <v>120.6003534763935</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>120.6003534763935</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>120.6003534763935</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>120.6003534763935</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>410.0175235133541</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V16" t="n">
-        <v>410.0175235133541</v>
+        <v>613.5544896704434</v>
       </c>
       <c r="W16" t="n">
-        <v>120.6003534763935</v>
+        <v>613.5544896704434</v>
       </c>
       <c r="X16" t="n">
-        <v>120.6003534763935</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.6003534763935</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1689.318139675982</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2961.784676410101</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W17" t="n">
-        <v>2839.523069976995</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X17" t="n">
-        <v>2466.057311715915</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y17" t="n">
-        <v>2075.917979740103</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,34 +5612,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>461.3768395628454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>609.2899331452385</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U19" t="n">
-        <v>609.2899331452385</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V19" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W19" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X19" t="n">
-        <v>609.2899331452385</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>609.2899331452385</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.795585684488</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.833068744076</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D20" t="n">
-        <v>934.5673701373257</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539435</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008241</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.795585684488</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="21">
@@ -5822,43 +5822,43 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379413</v>
+        <v>751.043919583924</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098065</v>
+        <v>751.043919583924</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218339</v>
+        <v>751.043919583924</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218339</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308156</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367744</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760994</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.38442316275</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731422</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>236.3260682181387</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.60582160917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.14006334809</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372278</v>
+        <v>1565.219016943946</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,34 +6086,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.4020639300937</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C25" t="n">
-        <v>213.4020639300937</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181845</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438281</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="V25" t="n">
-        <v>502.8192339670543</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="W25" t="n">
-        <v>213.4020639300937</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X25" t="n">
-        <v>213.4020639300937</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.4020639300937</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1774.969111598456</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C26" t="n">
-        <v>1406.006594658045</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.568951662578</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y26" t="n">
-        <v>2161.568951662578</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="C28" t="n">
-        <v>462.5336528533173</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="D28" t="n">
-        <v>312.4170134409816</v>
+        <v>259.5865809384147</v>
       </c>
       <c r="E28" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507504</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1616.654488422265</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>519.7883416110835</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>108.802436821476</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6463,10 +6463,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2766.859418723278</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.393660462198</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y29" t="n">
-        <v>2003.254328486386</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>403.4802848832069</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C31" t="n">
-        <v>234.5441019553</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>234.5441019553</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>234.5441019553</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>87.65415445738961</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>87.65415445738961</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X31" t="n">
-        <v>403.4802848832069</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y31" t="n">
-        <v>403.4802848832069</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C32" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>950.1045973369964</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>564.3163447387522</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>153.3304399491446</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6709,43 +6709,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,34 +6785,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3293224320793</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>220.4162288496861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>73.52628135177579</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>73.52628135177579</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
@@ -6882,28 +6882,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>252.5365116643958</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y34" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1848.950422814785</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C35" t="n">
-        <v>1519.135572818019</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.869874211268</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
         <v>364.0957168234162</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410101</v>
+        <v>3095.109771607697</v>
       </c>
       <c r="W35" t="n">
-        <v>2609.016021139987</v>
+        <v>3095.109771607697</v>
       </c>
       <c r="X35" t="n">
-        <v>2235.550262878907</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y35" t="n">
-        <v>2235.550262878907</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.5418494269122</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
         <v>66.5121164321834</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>766.9828934006821</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>766.9828934006821</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V37" t="n">
-        <v>766.9828934006821</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W37" t="n">
-        <v>766.9828934006821</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X37" t="n">
-        <v>766.9828934006821</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y37" t="n">
-        <v>546.190314257152</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1664.678443125551</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1295.71592618514</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1295.71592618514</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>909.9276735868953</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7216,10 +7216,10 @@
         <v>2424.744041450753</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.278283189673</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y38" t="n">
-        <v>2051.278283189673</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.4482993600903</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>892.5738315397469</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>892.5738315397469</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y40" t="n">
-        <v>417.09676419033</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2283.102991989293</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.140475048881</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1555.874776442131</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1170.086523843887</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>759.1006190542792</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7411,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3040.359829608966</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="V41" t="n">
-        <v>3009.337405520487</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W41" t="n">
-        <v>2656.568750250373</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X41" t="n">
-        <v>2283.102991989293</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y41" t="n">
-        <v>2283.102991989293</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.68248070098099</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C43" t="n">
-        <v>87.68248070098099</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>87.68248070098099</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>87.68248070098099</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7602,19 +7602,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.68248070098099</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.68248070098099</v>
+        <v>478.3278112441809</v>
       </c>
       <c r="C46" t="n">
-        <v>87.68248070098099</v>
+        <v>478.3278112441809</v>
       </c>
       <c r="D46" t="n">
-        <v>87.68248070098099</v>
+        <v>478.3278112441809</v>
       </c>
       <c r="E46" t="n">
-        <v>87.68248070098099</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>87.68248070098099</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379416</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W46" t="n">
-        <v>87.68248070098099</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X46" t="n">
-        <v>87.68248070098099</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.68248070098099</v>
+        <v>478.3278112441809</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961674</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>91.06702678518604</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>180.9061373814263</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510932</v>
+        <v>202.3948476287044</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>45.61628164856529</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459982</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715769</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098458</v>
+        <v>76.3406323223698</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,37 +22743,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>197.17059429933</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>215.9514149651522</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>240.0936190433831</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799591</v>
+        <v>320.9269077473048</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550658</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>3.58169333188934</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>59.08386854792607</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>66.01816045109692</v>
       </c>
       <c r="W6" t="n">
-        <v>219.1504233714595</v>
+        <v>84.91255646259125</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>171.5037272356658</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.7038047660226</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543632</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>119.0745931339333</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3555344840937</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>118.4363177543198</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X9" t="n">
-        <v>25.78335984937891</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346031</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>229.8357285687227</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>170.1349897010398</v>
       </c>
     </row>
     <row r="12">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>26.74411519276694</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>84.36303314503924</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>202.7275490263195</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>337.9743263566724</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>112.4784535852602</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>234.0902905431768</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>228.2019783486381</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>46.2588356081211</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>16.88320079244224</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>130.651943665563</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.78530491553789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,19 +24183,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>83.99298795190916</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>204.7509947629279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>168.0688818921507</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>145.0924720020199</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>120.3031364207906</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>124.462387396822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>228.3116496445073</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>0.650068125919006</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>48.40916263079023</v>
+        <v>100.7112908083315</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>30.36008496825406</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>369.0543084680538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>122.5370638840281</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>123.8243972693666</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>321.4674883790881</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>324.9715853716619</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>137.8109916439243</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>41.54550410914683</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>38.75619027420828</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>208.7489307568521</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>48.09800249981205</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>67.18387798284144</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>277.4241341993207</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>337.4994114326832</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>191.5189067405156</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>19.86687244489912</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>30.71219984759435</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3027978282313</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.0671476329186</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.1273029151779</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>279.8643344083835</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>50.18328106465113</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>145.0671476329186</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337675</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434025.1395641701</v>
+        <v>417888.8482179074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>150168.879351899</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="F2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="G2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="H2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="F2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="I2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="L2" t="n">
-        <v>296136.8796318743</v>
-      </c>
       <c r="M2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318744</v>
@@ -26355,7 +26355,7 @@
         <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318743</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340639</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.8408567905</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>38421.40650613411</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136521</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004462</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678773</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723339</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>341.7326656448344</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061231</v>
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732617</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758348</v>
+        <v>64626.86678985733</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758344</v>
+        <v>69896.83250792413</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303619</v>
+        <v>-406296.1510900098</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.0860375242</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415216</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033053</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542817</v>
+        <v>60382.05067578076</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.492543658</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697031</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.8563088887131</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799137</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961938</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359726</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799137</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>171.5470783449032</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>276.048018060186</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563574</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>37.57267093057298</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764983</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>144.7063059768527</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
